--- a/biology/Médecine/Jean-Pierre_de_Mondenard/Jean-Pierre_de_Mondenard.xlsx
+++ b/biology/Médecine/Jean-Pierre_de_Mondenard/Jean-Pierre_de_Mondenard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre de Mondenard est un médecin du sport français, né le 18 mars 1943 à Nîmes (Gard). Il est l'auteur d'ouvrages de médecine du sport et sur le dopage sportif[1],[2],[3].
-Il a exercé à l'Institut national des sports de 1974 à 1979 et suivi en tant que médecin la plupart des grandes épreuves cyclistes, notamment le Tour de France à trois reprises de 1973 à 1975[4], Paris-Roubaix, Paris-Tours, Paris-Bruxelles, le Tour de l'Avenir, etc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre de Mondenard est un médecin du sport français, né le 18 mars 1943 à Nîmes (Gard). Il est l'auteur d'ouvrages de médecine du sport et sur le dopage sportif.
+Il a exercé à l'Institut national des sports de 1974 à 1979 et suivi en tant que médecin la plupart des grandes épreuves cyclistes, notamment le Tour de France à trois reprises de 1973 à 1975, Paris-Roubaix, Paris-Tours, Paris-Bruxelles, le Tour de l'Avenir, etc.
 Médecin de la Fédération royale marocaine de cyclisme. Médecin-chef du Tour du Maroc (1974-1985).
 Médecin pendant plusieurs années de l’équipe de France de judo (1975-1979) et du Tour de France moto (1976-1978).
 Responsable pendant neuf ans d’une consultation de médecine du sport réservée aux enfants (1979-1987).
@@ -492,7 +504,7 @@
 Chargé de cours au diplôme de pathologie de l’appareil locomoteur liée au sport (Université de Paris 7) (1984-2000).
 Chargé de cours au diplôme d’université de nutrition et de diététique de l’adulte (Hôtel Dieu - Paris) (1991-1994).
 Chargé de cours au diplôme inter-universitaire « Dopage et toxicomanie : lutte et prévention » (Pitié-Salpêtrière – Paris) (2003-2009).
-Il pratique lui-même assidûment la course à pied, la randonnée pédestre et surtout le vélo dans lequel il totalise plus de 312 000 km[5] et plus de 1 500 ascensions de cols. Il collabore à différentes publications grand public et médicales.
+Il pratique lui-même assidûment la course à pied, la randonnée pédestre et surtout le vélo dans lequel il totalise plus de 312 000 km et plus de 1 500 ascensions de cols. Il collabore à différentes publications grand public et médicales.
 </t>
         </is>
       </c>
@@ -523,8 +535,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sur le thème du dopage
-Thèse de médecine : « Activités médicales au sein du cyclisme de compétition » Toulouse (Haute-Garonne), éd. Cepadues, 1974, 97 p. (no 128)
+          <t>Sur le thème du dopage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Thèse de médecine : « Activités médicales au sein du cyclisme de compétition » Toulouse (Haute-Garonne), éd. Cepadues, 1974, 97 p. (no 128)
 « Document dopage » (sous sa direction) Caducycle 1979;7, no 26, juin, p. 1-60
 Avec Bernard Chevalier, Le dossier noir du dopage, Paris, éd. Hachette, 1981, 270 pages
 En collaboration. Drogues et dopages, Saint-Mandé, éd. Quel Corps ? diffusion Chiron, 1987, 315 pages
@@ -537,13 +554,81 @@
 Dopage dans le football. La loi du silence, Paris, éd. J.C. Gawsewitch, 2010, 379 pages
 Tour de France : 33 vainqueurs face au dopage, Paris, éditions Hugo &amp; Cie, 2011, 305 pages
 Tour de France - Histoires extraordinaires des géants de la route, Paris, éd. Hugo-Sport, 2012, 288 pages
-« Les dopés du foot : un siècle de potions magiques » Quel Sport ? 2012, nos 18/19, juin, 300 pages
-Sur le thème du football
-Voir les références des articles de Jean-Pierre de Mondenard autour du dopage dans le football (1979-2010) dans l’ouvrage Dopage dans le football : la loi du silence, éd. Gawsewitch, 2010.
+« Les dopés du foot : un siècle de potions magiques » Quel Sport ? 2012, nos 18/19, juin, 300 pages</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sur le thème du football</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voir les références des articles de Jean-Pierre de Mondenard autour du dopage dans le football (1979-2010) dans l’ouvrage Dopage dans le football : la loi du silence, éd. Gawsewitch, 2010.
 Collaborateur à une revue de football : Planète Football (1992-1995)
-« Les dopés du foot : un siècle de potions magiques » Quel Sport ? 2012, nos 18/19, juin, 300 pages
-Sur le thème du cyclisme
-Thèse de médecine : « Activités médicales au sein du cyclisme de compétition ». – Toulouse (Haute-Garonne), éd. Cepadues, 1974. – 97 p. (no 128)
+« Les dopés du foot : un siècle de potions magiques » Quel Sport ? 2012, nos 18/19, juin, 300 pages</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sur le thème du cyclisme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thèse de médecine : « Activités médicales au sein du cyclisme de compétition ». – Toulouse (Haute-Garonne), éd. Cepadues, 1974. – 97 p. (no 128)
 (sous sa direction) « La diététique de l’effort » Caducycle, 1979, 7, no 27, juillet-septembre, p. 1-35
 La consultation médicale du cycliste (tome 1), Paris, éd. Amphora, 1979 – 230 pages
 La consultation du médecin, Paris, éd. Le Cycle, 1981 – 72 pages
@@ -561,9 +646,43 @@
 « Spécial blessures et gamelles : hors série Cyclo Coach » Paris, éd. Riva, 2010. – 74 pages
 Tour de France : 33 vainqueurs face au dopage, Paris, éd. Hugo et Cie, 2011 – 305 pages
 Tour de France – Histoires extraordinaires des géants de la route, Paris, éd. Hugo-Sport, 2012 – 288 pages
-Les Grandes Premières du Tour de France, Paris, éd. Hugo-Sport, 2013 - 205 p.
-Collaborateur à des revues cyclistes
-Cyclisme Magazine (1973-1978)
+Les Grandes Premières du Tour de France, Paris, éd. Hugo-Sport, 2013 - 205 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collaborateur à des revues cyclistes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cyclisme Magazine (1973-1978)
 Caducycle (1973-1979)
 La France cycliste (1973-1984)
 Le Cycle (1975-1987)
@@ -578,9 +697,43 @@
 Vélo Légende (1999-2000)
 Cyclo Sport magazine (depuis 2004)
 Vélo Club (2005-2007)
-Cyclo Coach (2008-2013)
-Sur le thème de la course à pied
-Le jogging en questions – Paris, éd. Amphora, 1984 – 228 pages
+Cyclo Coach (2008-2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sur le thème de la course à pied</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le jogging en questions – Paris, éd. Amphora, 1984 – 228 pages
 Mieux courir, les 100 conseils du docteur de Mondenard – Paris, éd. DVD, 1986 – 93 pages
 Les blessures du coureur à pied (tome 1) – Paris, éd. DVD, 1987 – 96 pages
 L’alimentation du coureur à pied – Paris, éd. DVD, 1987 – 97 pages
@@ -590,18 +743,86 @@
 Spécial entraînement, du débutant au coureur confirmé – Paris, éd. Riva, 2003 – 74 pages
 Spécial blessures : hors série Running Coach  – Paris, éd. Riva, 2010 – 74 pages
 Spécial blessures : hors série Running Coach - Paris, éd. Riva, 2013 - 82 p.
-Spécial blessures : hors série Running Attitude - Paris, éd. Riva, 2015.- 82 p
-Collaborateur à des revues de course à pied
-Footing (1979-1980)
+Spécial blessures : hors série Running Attitude - Paris, éd. Riva, 2015.- 82 p</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collaborateur à des revues de course à pied</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Footing (1979-1980)
 Courir (1979-1981)
 Mondial Marathon (1982-1994)
 Jogging International (1983-1994)
 Jogging et Marathon (1990-1992)
 Coureurs (1998)
 Running Attitude (depuis 2003)
-Running Coach (depuis 2008)
-Sur d'autres sujets
-Le Judo – Paris, Éditions Leson, 1977 – 185 pages
+Running Coach (depuis 2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_de_Mondenard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sur d'autres sujets</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Judo – Paris, Éditions Leson, 1977 – 185 pages
 Comment prescrire le sport à un diabétique – Gidy (Loiret), éd. Servier, 1980 – 22 p.
 Exercice, sport et diabète (édition complète) – Rungis (Val-de-Marne), éd. Becton-Dickinson, 1985, 15 p.
 Nutrition et sport – Neuilly-sur-Seine (Hauts-de-Seine), éd. Le Quotidien du Médecin, 1987 – 16 p.
